--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H2">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N2">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01728352177933334</v>
+        <v>0.002671538497333334</v>
       </c>
       <c r="R2">
-        <v>0.103701130676</v>
+        <v>0.016029230984</v>
       </c>
       <c r="S2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="T2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I3">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J3">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N3">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.549852072728667</v>
+        <v>0.2485726553026667</v>
       </c>
       <c r="R3">
-        <v>9.299112436372001</v>
+        <v>1.491435931816</v>
       </c>
       <c r="S3">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="T3">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H4">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I4">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J4">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N4">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.17369319364925</v>
+        <v>0.007391293895</v>
       </c>
       <c r="R4">
-        <v>0.6947727745970002</v>
+        <v>0.02956517558</v>
       </c>
       <c r="S4">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="T4">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
     </row>
   </sheetData>
